--- a/Documentation/Urenverantwoording.xlsx
+++ b/Documentation/Urenverantwoording.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teun\Documents\VC2-Unity-and-UE4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teun\Documents\VC2-Unity-and-UE4\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Uren</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Unreal Engine 4</t>
   </si>
   <si>
-    <t>Maken van een platformer</t>
-  </si>
-  <si>
     <t>Totaal</t>
   </si>
   <si>
@@ -48,6 +45,18 @@
   </si>
   <si>
     <t>Opzet en basis invul van documentatie</t>
+  </si>
+  <si>
+    <t>Maken van een platformer om de engine te leren kennen</t>
+  </si>
+  <si>
+    <t>Verkenning Unreal Engine 4</t>
+  </si>
+  <si>
+    <t>Bouwen van Unreal Engine content</t>
+  </si>
+  <si>
+    <t>Verdere invulling van documentatie</t>
   </si>
 </sst>
 </file>
@@ -402,13 +411,13 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -428,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -436,24 +445,57 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22">
         <f>SUM(C2:C20)</f>
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
